--- a/template Excel/Accountting/TaxTypeDescription.xlsx
+++ b/template Excel/Accountting/TaxTypeDescription.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\Accountting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259DFA8F-5B9F-44DB-97DB-D737E45CE11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4608B235-CCC4-499C-A68E-294CF2CCB047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8229877A-81DE-4F56-ACD9-BFCB2B3F0D16}"/>
+    <workbookView xWindow="1035" yWindow="4380" windowWidth="21600" windowHeight="11835" xr2:uid="{8229877A-81DE-4F56-ACD9-BFCB2B3F0D16}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,16 +75,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -124,18 +116,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -472,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47206654-E266-4C6B-B94C-45FA66A6DD17}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:I18"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,171 +478,120 @@
     <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>5</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>250000</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>10</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>750000</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>15</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>1650000</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>20</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>3250000</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>25</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>5850000</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>30</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>9850000</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>35</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/template Excel/Accountting/TaxTypeDescription.xlsx
+++ b/template Excel/Accountting/TaxTypeDescription.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\Accountting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4608B235-CCC4-499C-A68E-294CF2CCB047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E802C1B9-B9D3-4362-8E4D-68756367E0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="4380" windowWidth="21600" windowHeight="11835" xr2:uid="{8229877A-81DE-4F56-ACD9-BFCB2B3F0D16}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8229877A-81DE-4F56-ACD9-BFCB2B3F0D16}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>TaxTypeID</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>Over 80</t>
+  </si>
+  <si>
+    <t>TaxTypeDescriptionId</t>
   </si>
 </sst>
 </file>
@@ -463,13 +463,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47206654-E266-4C6B-B94C-45FA66A6DD17}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
@@ -480,16 +478,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -497,7 +495,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -511,7 +509,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
         <v>250000</v>
@@ -525,7 +523,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
         <v>750000</v>
@@ -539,7 +537,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1">
         <v>1650000</v>
@@ -553,7 +551,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
         <v>3250000</v>
@@ -567,7 +565,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1">
         <v>5850000</v>
@@ -581,7 +579,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1">
         <v>9850000</v>
